--- a/src/main/resources/team-info.xlsx
+++ b/src/main/resources/team-info.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2638391-F129-446F-A900-D457DF44CAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76FA467-DD01-446B-AD91-EDFA7D620274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet8" sheetId="10" r:id="rId1"/>
+    <sheet name="updated info" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet8!$D$2:$D$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'updated info'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="517">
   <si>
     <t>badhan.ahmed@ificbankbd.com</t>
   </si>
@@ -475,12 +475,6 @@
     <t>rashid.harun@thecitybank.com</t>
   </si>
   <si>
-    <t>Azharul Islam</t>
-  </si>
-  <si>
-    <t>azharul.islam@thecitybank.com</t>
-  </si>
-  <si>
     <t>Taukir Ahmed</t>
   </si>
   <si>
@@ -793,24 +787,12 @@
     <t>sde2.ict@pgcb.gov.bd</t>
   </si>
   <si>
-    <t>Tazrian Siddiqu</t>
-  </si>
-  <si>
-    <t>sde1.scada@pgcb.gov.bd</t>
-  </si>
-  <si>
     <t>Md. Nurnabi</t>
   </si>
   <si>
     <t>engrnabi@gmail.com</t>
   </si>
   <si>
-    <t>Nirzar Shome</t>
-  </si>
-  <si>
-    <t>nirzar.cse@gmail.com</t>
-  </si>
-  <si>
     <t>MD. ANWAR HOSSAIN SUJON</t>
   </si>
   <si>
@@ -949,12 +931,6 @@
     <t>kamrul.ahasan@sonalibank.com.bd</t>
   </si>
   <si>
-    <t>Saykot Osman</t>
-  </si>
-  <si>
-    <t>saykot.osman@sonalibank.com.bd</t>
-  </si>
-  <si>
     <t>Md. Noor Alam Siddique</t>
   </si>
   <si>
@@ -1021,12 +997,6 @@
     <t>kazi.shamsur@nrbbankbd.com</t>
   </si>
   <si>
-    <t>Md. Rasel Hossain</t>
-  </si>
-  <si>
-    <t>rasel.hossain@nrbbankbd.com</t>
-  </si>
-  <si>
     <t>sanjoy.dutta@ebl-bd.com</t>
   </si>
   <si>
@@ -1075,12 +1045,6 @@
     <t>selim.mahmud@bracbank.com</t>
   </si>
   <si>
-    <t>Piyal Dutta Gupta</t>
-  </si>
-  <si>
-    <t>piyal.gupta@bracbank.com</t>
-  </si>
-  <si>
     <t>S.M. Mahabubul Alam</t>
   </si>
   <si>
@@ -1108,453 +1072,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>nKNBAimM</t>
-  </si>
-  <si>
-    <t>2l2rERgy</t>
-  </si>
-  <si>
-    <t>4KI4y8gq</t>
-  </si>
-  <si>
-    <t>7fVXWhUA</t>
-  </si>
-  <si>
-    <t>sMFMK3l6</t>
-  </si>
-  <si>
-    <t>BB4VSuxj</t>
-  </si>
-  <si>
-    <t>3SpLTBQ3</t>
-  </si>
-  <si>
-    <t>IuRtjnbs</t>
-  </si>
-  <si>
-    <t>KyNMj4R7</t>
-  </si>
-  <si>
-    <t>A3bPfWc5</t>
-  </si>
-  <si>
-    <t>Zvm83rvk</t>
-  </si>
-  <si>
-    <t>HSfWqq6e</t>
-  </si>
-  <si>
-    <t>9Z2V6uKj</t>
-  </si>
-  <si>
-    <t>eU6EfwCi</t>
-  </si>
-  <si>
-    <t>QWGjLrDr</t>
-  </si>
-  <si>
-    <t>jq6787Bt</t>
-  </si>
-  <si>
-    <t>sfKPZQeN</t>
-  </si>
-  <si>
-    <t>bG6DmreD</t>
-  </si>
-  <si>
-    <t>VvuwaEav</t>
-  </si>
-  <si>
-    <t>qP6JVfiJ</t>
-  </si>
-  <si>
-    <t>GCk9LP8e</t>
-  </si>
-  <si>
-    <t>Q6lSteJy</t>
-  </si>
-  <si>
-    <t>yer6SCaM</t>
-  </si>
-  <si>
-    <t>S7cU68WI</t>
-  </si>
-  <si>
-    <t>axK4LU5r</t>
-  </si>
-  <si>
-    <t>B4E9VHGz</t>
-  </si>
-  <si>
-    <t>kZdlzmTl</t>
-  </si>
-  <si>
-    <t>j8E3dSb9</t>
-  </si>
-  <si>
-    <t>mavLDlnj</t>
-  </si>
-  <si>
-    <t>rTy4HHfv</t>
-  </si>
-  <si>
-    <t>jJldNAgA</t>
-  </si>
-  <si>
-    <t>NQuhNSN2</t>
-  </si>
-  <si>
-    <t>7J8t73zz</t>
-  </si>
-  <si>
-    <t>rPHXnQD5</t>
-  </si>
-  <si>
-    <t>Rbz4reBT</t>
-  </si>
-  <si>
-    <t>5AjmcJqA</t>
-  </si>
-  <si>
-    <t>UEUcvjYT</t>
-  </si>
-  <si>
-    <t>mNswFGmc</t>
-  </si>
-  <si>
-    <t>ahTU1SE9</t>
-  </si>
-  <si>
-    <t>t6p5y1IH</t>
-  </si>
-  <si>
-    <t>PuMsxprz</t>
-  </si>
-  <si>
-    <t>pBf9F9RE</t>
-  </si>
-  <si>
-    <t>akX1qEH1</t>
-  </si>
-  <si>
-    <t>IxvV177m</t>
-  </si>
-  <si>
-    <t>gvzbGJeH</t>
-  </si>
-  <si>
-    <t>uDmfmbrU</t>
-  </si>
-  <si>
-    <t>vFVlk78M</t>
-  </si>
-  <si>
-    <t>KFUtMGr9</t>
-  </si>
-  <si>
-    <t>RG63Njlk</t>
-  </si>
-  <si>
-    <t>bhvypiV4</t>
-  </si>
-  <si>
-    <t>uZDK42Y9</t>
-  </si>
-  <si>
-    <t>eF9JqKDe</t>
-  </si>
-  <si>
-    <t>RuhhByFv</t>
-  </si>
-  <si>
-    <t>quUJrc3H</t>
-  </si>
-  <si>
-    <t>6FxUxknM</t>
-  </si>
-  <si>
-    <t>ga9Vvy7y</t>
-  </si>
-  <si>
-    <t>sWlaw45m</t>
-  </si>
-  <si>
-    <t>Rd2xeuqU</t>
-  </si>
-  <si>
-    <t>tu43lkPa</t>
-  </si>
-  <si>
-    <t>LYQGh61c</t>
-  </si>
-  <si>
-    <t>zI2WUsZ3</t>
-  </si>
-  <si>
-    <t>Ure5WCeN</t>
-  </si>
-  <si>
-    <t>M6n5btBF</t>
-  </si>
-  <si>
-    <t>Mb9dDwnx</t>
-  </si>
-  <si>
-    <t>NpZ9dYt4</t>
-  </si>
-  <si>
-    <t>ccLk4jrs</t>
-  </si>
-  <si>
-    <t>zyWwlbbN</t>
-  </si>
-  <si>
-    <t>ApEXLuCW</t>
-  </si>
-  <si>
-    <t>S8BAxpGh</t>
-  </si>
-  <si>
-    <t>2n2AyTXR</t>
-  </si>
-  <si>
-    <t>bV8lPcDe</t>
-  </si>
-  <si>
-    <t>vIDKXIhq</t>
-  </si>
-  <si>
-    <t>HC612dAU</t>
-  </si>
-  <si>
-    <t>msZEtMi1</t>
-  </si>
-  <si>
-    <t>9Y9qvtbh</t>
-  </si>
-  <si>
-    <t>idNTaKSc</t>
-  </si>
-  <si>
-    <t>4A86VRDy</t>
-  </si>
-  <si>
-    <t>NtlEbttI</t>
-  </si>
-  <si>
-    <t>P1gcUFp7</t>
-  </si>
-  <si>
-    <t>cKzuIJkv</t>
-  </si>
-  <si>
-    <t>uqvWJRz4</t>
-  </si>
-  <si>
-    <t>aCWEfQuU</t>
-  </si>
-  <si>
-    <t>cYebQ6Ae</t>
-  </si>
-  <si>
-    <t>IeFEw5Rf</t>
-  </si>
-  <si>
-    <t>CDQEb1WY</t>
-  </si>
-  <si>
-    <t>VVYD7gFn</t>
-  </si>
-  <si>
-    <t>PmBL12rn</t>
-  </si>
-  <si>
-    <t>8nCmcfTU</t>
-  </si>
-  <si>
-    <t>nhQrHhLM</t>
-  </si>
-  <si>
-    <t>ueMJ99Cr</t>
-  </si>
-  <si>
-    <t>XJDsTlvr</t>
-  </si>
-  <si>
-    <t>SMIHsaxu</t>
-  </si>
-  <si>
-    <t>hTtcv2sC</t>
-  </si>
-  <si>
-    <t>VYMq5Q3m</t>
-  </si>
-  <si>
-    <t>qGSl65xu</t>
-  </si>
-  <si>
-    <t>2j9zi8lw</t>
-  </si>
-  <si>
-    <t>xngbBfRL</t>
-  </si>
-  <si>
-    <t>dK6aJ3w4</t>
-  </si>
-  <si>
-    <t>J1AMV6y9</t>
-  </si>
-  <si>
-    <t>3vPMreGx</t>
-  </si>
-  <si>
-    <t>2eGjfYi5</t>
-  </si>
-  <si>
-    <t>YLlSSN7E</t>
-  </si>
-  <si>
-    <t>KarSTrpJ</t>
-  </si>
-  <si>
-    <t>SSHJ7F3a</t>
-  </si>
-  <si>
-    <t>y1sAtwIG</t>
-  </si>
-  <si>
-    <t>QdTcns8l</t>
-  </si>
-  <si>
-    <t>MN1ZAUcW</t>
-  </si>
-  <si>
-    <t>mEhHeudF</t>
-  </si>
-  <si>
-    <t>cRfr48tx</t>
-  </si>
-  <si>
-    <t>6LtDNKCb</t>
-  </si>
-  <si>
-    <t>3BR3Fn8p</t>
-  </si>
-  <si>
-    <t>IggNn1cw</t>
-  </si>
-  <si>
-    <t>t18zRRvK</t>
-  </si>
-  <si>
-    <t>aFuKp6tZ</t>
-  </si>
-  <si>
-    <t>JgeWHQTK</t>
-  </si>
-  <si>
-    <t>jD8E246b</t>
-  </si>
-  <si>
-    <t>KxRRXkmt</t>
-  </si>
-  <si>
-    <t>aRTF7vWY</t>
-  </si>
-  <si>
-    <t>NZIRPkwC</t>
-  </si>
-  <si>
-    <t>aM6tE55G</t>
-  </si>
-  <si>
-    <t>MwGfuDnh</t>
-  </si>
-  <si>
-    <t>HsHDGS9V</t>
-  </si>
-  <si>
-    <t>FWpynC9x</t>
-  </si>
-  <si>
-    <t>eARGs4UL</t>
-  </si>
-  <si>
-    <t>caZ7KBau</t>
-  </si>
-  <si>
-    <t>x89PzHtN</t>
-  </si>
-  <si>
-    <t>2zPrtGfe</t>
-  </si>
-  <si>
-    <t>7ShBfq58</t>
-  </si>
-  <si>
-    <t>TEi3n46v</t>
-  </si>
-  <si>
-    <t>wngnfFJ1</t>
-  </si>
-  <si>
-    <t>RPEwbMg9</t>
-  </si>
-  <si>
-    <t>xSMHNGwq</t>
-  </si>
-  <si>
-    <t>5Xt2FBIS</t>
-  </si>
-  <si>
-    <t>GmRdymem</t>
-  </si>
-  <si>
-    <t>wmtmep2v</t>
-  </si>
-  <si>
-    <t>s8g1HqGQ</t>
-  </si>
-  <si>
-    <t>WX9PClvt</t>
-  </si>
-  <si>
-    <t>4ERYXWJS</t>
-  </si>
-  <si>
-    <t>g4Pch17E</t>
-  </si>
-  <si>
-    <t>kzbIyPPg</t>
-  </si>
-  <si>
-    <t>5TQSueeV</t>
-  </si>
-  <si>
-    <t>I93HXQU4</t>
-  </si>
-  <si>
-    <t>rt2hfyz1</t>
-  </si>
-  <si>
-    <t>8TqxH9Wi</t>
-  </si>
-  <si>
-    <t>UNI3t7aq</t>
-  </si>
-  <si>
-    <t>Thw95wZx</t>
-  </si>
-  <si>
-    <t>pVj4BYEv</t>
-  </si>
-  <si>
-    <t>X5MhgBXY</t>
-  </si>
-  <si>
-    <t>rqage2Zn</t>
-  </si>
-  <si>
     <t>Org name</t>
   </si>
   <si>
@@ -1565,6 +1082,498 @@
   </si>
   <si>
     <t>User Namee</t>
+  </si>
+  <si>
+    <t>Likhon Saha</t>
+  </si>
+  <si>
+    <t>likhon.saha@thecitybank.com</t>
+  </si>
+  <si>
+    <t>Ekramul Haque Chowdhury</t>
+  </si>
+  <si>
+    <t>ekramul.chowdhury@nrbbankbd.com</t>
+  </si>
+  <si>
+    <t>Sowmen Kumar Saha</t>
+  </si>
+  <si>
+    <t>sowmen.saha@nrbbankbd.com</t>
+  </si>
+  <si>
+    <t>Muhammad Nahid Hasan</t>
+  </si>
+  <si>
+    <t>sde.spmc@pgcb.gov.bd</t>
+  </si>
+  <si>
+    <t>Md. Raisul Islam</t>
+  </si>
+  <si>
+    <t>sde3.ict@pgcb.gov.bd</t>
+  </si>
+  <si>
+    <t>Mohammad Shamim Waheed</t>
+  </si>
+  <si>
+    <t>shamim.waheed@bracbank.com</t>
+  </si>
+  <si>
+    <t>YDVr1TNUv5s</t>
+  </si>
+  <si>
+    <t>MUU5YTwrYdH</t>
+  </si>
+  <si>
+    <t>YQDy76zaQNg</t>
+  </si>
+  <si>
+    <t>UJESMHhSneR</t>
+  </si>
+  <si>
+    <t>IPWaQtJfilw</t>
+  </si>
+  <si>
+    <t>CDJd4AJtY4r</t>
+  </si>
+  <si>
+    <t>EKXxqTWyHjT</t>
+  </si>
+  <si>
+    <t>NKSwsEFb3Qp</t>
+  </si>
+  <si>
+    <t>BWUmEgEbWWq</t>
+  </si>
+  <si>
+    <t>KPSqtWaw5jq</t>
+  </si>
+  <si>
+    <t>EEMw926av3y</t>
+  </si>
+  <si>
+    <t>MBEDlkcijRR</t>
+  </si>
+  <si>
+    <t>MLZVZuQFw5u</t>
+  </si>
+  <si>
+    <t>SBJRa3m5jLs</t>
+  </si>
+  <si>
+    <t>WEZ4P4wNF7L</t>
+  </si>
+  <si>
+    <t>IONSI7begyl</t>
+  </si>
+  <si>
+    <t>DQXYUdwlhk3</t>
+  </si>
+  <si>
+    <t>TLOz1mbgLHv</t>
+  </si>
+  <si>
+    <t>TPLH7E9IRS3</t>
+  </si>
+  <si>
+    <t>TZA7EtMaIw9</t>
+  </si>
+  <si>
+    <t>UELIxBFwJEK</t>
+  </si>
+  <si>
+    <t>XQQcNjX2kFi</t>
+  </si>
+  <si>
+    <t>IYPszPP2vMc</t>
+  </si>
+  <si>
+    <t>WBJZUJ37z8W</t>
+  </si>
+  <si>
+    <t>KBB2u5Kt4xv</t>
+  </si>
+  <si>
+    <t>AYYxJPFv76S</t>
+  </si>
+  <si>
+    <t>ODJpidbDnnG</t>
+  </si>
+  <si>
+    <t>YRFGyzMa6fR</t>
+  </si>
+  <si>
+    <t>YFUJaD5eN5n</t>
+  </si>
+  <si>
+    <t>BGSYQgTmqbw</t>
+  </si>
+  <si>
+    <t>NCRj31T4gzd</t>
+  </si>
+  <si>
+    <t>APAc8QhbbcM</t>
+  </si>
+  <si>
+    <t>BKLjmDlFnIh</t>
+  </si>
+  <si>
+    <t>BTXjq9jm9Vm</t>
+  </si>
+  <si>
+    <t>RYR2GsfRyuB</t>
+  </si>
+  <si>
+    <t>JACMDyBRMv7</t>
+  </si>
+  <si>
+    <t>PRLcmGFNxIS</t>
+  </si>
+  <si>
+    <t>GKBQEZGr9Ug</t>
+  </si>
+  <si>
+    <t>ZUIlDcnxUlM</t>
+  </si>
+  <si>
+    <t>EWRLHUbJTCf</t>
+  </si>
+  <si>
+    <t>PUSRqQ1iA8P</t>
+  </si>
+  <si>
+    <t>PXFp2AvTpNL</t>
+  </si>
+  <si>
+    <t>YJKjEhDIq9W</t>
+  </si>
+  <si>
+    <t>WCAkFYdf46H</t>
+  </si>
+  <si>
+    <t>ZWJ6sAa5jJk</t>
+  </si>
+  <si>
+    <t>TAHj3Sdegxc</t>
+  </si>
+  <si>
+    <t>HOD4YuZbyve</t>
+  </si>
+  <si>
+    <t>KXTcgMWzxrD</t>
+  </si>
+  <si>
+    <t>OBFDJC65FYZ</t>
+  </si>
+  <si>
+    <t>BRYec6Q9kJ4</t>
+  </si>
+  <si>
+    <t>RULZirpGgsB</t>
+  </si>
+  <si>
+    <t>CMNiynu4DwA</t>
+  </si>
+  <si>
+    <t>EEJYbA73hPV</t>
+  </si>
+  <si>
+    <t>DEUrfQ92NJX</t>
+  </si>
+  <si>
+    <t>IHOImAfSkIU</t>
+  </si>
+  <si>
+    <t>TQM52SliuE2</t>
+  </si>
+  <si>
+    <t>REF3pNEWYXu</t>
+  </si>
+  <si>
+    <t>ZBAiSBhQUYL</t>
+  </si>
+  <si>
+    <t>XXVMCAYBBMU</t>
+  </si>
+  <si>
+    <t>KAY3PKvCr1s</t>
+  </si>
+  <si>
+    <t>IHPyHhSSMi6</t>
+  </si>
+  <si>
+    <t>NTJM7bNKIp3</t>
+  </si>
+  <si>
+    <t>NUKwJSPQ4xC</t>
+  </si>
+  <si>
+    <t>FQXs7FlDqZK</t>
+  </si>
+  <si>
+    <t>TCSSfF5gwSa</t>
+  </si>
+  <si>
+    <t>BOIuD1D7rUq</t>
+  </si>
+  <si>
+    <t>WLVcHjd7dUA</t>
+  </si>
+  <si>
+    <t>PNA2U42ZkJB</t>
+  </si>
+  <si>
+    <t>DDQu5ASgq7F</t>
+  </si>
+  <si>
+    <t>NAUV6FrguUh</t>
+  </si>
+  <si>
+    <t>WJGQ5NHK8Q9</t>
+  </si>
+  <si>
+    <t>NAUVbEjNWe9</t>
+  </si>
+  <si>
+    <t>XQFMREevuef</t>
+  </si>
+  <si>
+    <t>KMEetNtw9QS</t>
+  </si>
+  <si>
+    <t>AINLVmZ4DCF</t>
+  </si>
+  <si>
+    <t>HIDPKH8xg1V</t>
+  </si>
+  <si>
+    <t>YCQXb4pi6EQ</t>
+  </si>
+  <si>
+    <t>GOFBrQWLAMx</t>
+  </si>
+  <si>
+    <t>HJDZGYQhP7d</t>
+  </si>
+  <si>
+    <t>KGRdMQ7WJhE</t>
+  </si>
+  <si>
+    <t>QXZkU8bcrNl</t>
+  </si>
+  <si>
+    <t>RWZaseFw5S3</t>
+  </si>
+  <si>
+    <t>KNYc4inltF6</t>
+  </si>
+  <si>
+    <t>WBCbRmwW9eX</t>
+  </si>
+  <si>
+    <t>GRVSpNX9Mzh</t>
+  </si>
+  <si>
+    <t>ROThCnFFkNY</t>
+  </si>
+  <si>
+    <t>YQAxzheWzqD</t>
+  </si>
+  <si>
+    <t>QUZiNAuzrx4</t>
+  </si>
+  <si>
+    <t>NQBLQhg9L7T</t>
+  </si>
+  <si>
+    <t>QUHMWujFSUH</t>
+  </si>
+  <si>
+    <t>DPQK8sWM7DC</t>
+  </si>
+  <si>
+    <t>EZWkSIzlJZs</t>
+  </si>
+  <si>
+    <t>SPLPeIEXGfA</t>
+  </si>
+  <si>
+    <t>WISzE75iCL4</t>
+  </si>
+  <si>
+    <t>GQSd1WUcSDk</t>
+  </si>
+  <si>
+    <t>HRLetRkQWGi</t>
+  </si>
+  <si>
+    <t>UNMjVM2n8Tb</t>
+  </si>
+  <si>
+    <t>IZMZDTd2LbP</t>
+  </si>
+  <si>
+    <t>AJSG1kUP1lL</t>
+  </si>
+  <si>
+    <t>IVFmcYw8PpS</t>
+  </si>
+  <si>
+    <t>KLTFGuAPIvD</t>
+  </si>
+  <si>
+    <t>NQFZAnjJrJM</t>
+  </si>
+  <si>
+    <t>GBIAS1WinXK</t>
+  </si>
+  <si>
+    <t>XFSJeHT5XZQ</t>
+  </si>
+  <si>
+    <t>DMNgI9e5ASP</t>
+  </si>
+  <si>
+    <t>DZPFsDe64m6</t>
+  </si>
+  <si>
+    <t>YCY1eSLwPDY</t>
+  </si>
+  <si>
+    <t>CGBSjWywdyG</t>
+  </si>
+  <si>
+    <t>RHBqK4VEeXu</t>
+  </si>
+  <si>
+    <t>FLDqWdt18kx</t>
+  </si>
+  <si>
+    <t>XMSkUIukAgw</t>
+  </si>
+  <si>
+    <t>TJRekiGRb7b</t>
+  </si>
+  <si>
+    <t>ZGArH1HjUwI</t>
+  </si>
+  <si>
+    <t>VCKnx9v8GLH</t>
+  </si>
+  <si>
+    <t>RTNub7MEE7h</t>
+  </si>
+  <si>
+    <t>MCHAK6kYFRq</t>
+  </si>
+  <si>
+    <t>BMRLSa4HP9K</t>
+  </si>
+  <si>
+    <t>LKMn7lAySV8</t>
+  </si>
+  <si>
+    <t>KDYzcvQjqnr</t>
+  </si>
+  <si>
+    <t>BNCtPvfZCPp</t>
+  </si>
+  <si>
+    <t>ITKqsEWzpMG</t>
+  </si>
+  <si>
+    <t>WXA42BHqRP4</t>
+  </si>
+  <si>
+    <t>CQQu45h5i9C</t>
+  </si>
+  <si>
+    <t>PMWus9RnEJX</t>
+  </si>
+  <si>
+    <t>FDAiamAeIJK</t>
+  </si>
+  <si>
+    <t>MKZsgLL4y5E</t>
+  </si>
+  <si>
+    <t>PVX2xIHqzDJ</t>
+  </si>
+  <si>
+    <t>BXFGTqutx4t</t>
+  </si>
+  <si>
+    <t>SRKK4M8HsY5</t>
+  </si>
+  <si>
+    <t>JLN8uAYe1Pp</t>
+  </si>
+  <si>
+    <t>PDWKyPnF2UQ</t>
+  </si>
+  <si>
+    <t>YJZ6FufDMsl</t>
+  </si>
+  <si>
+    <t>XMSDMi6jMIU</t>
+  </si>
+  <si>
+    <t>SQCfVCJbvd8</t>
+  </si>
+  <si>
+    <t>UNZ91yC9wvK</t>
+  </si>
+  <si>
+    <t>CYH4XFwSNwZ</t>
+  </si>
+  <si>
+    <t>PIXIjHKHANU</t>
+  </si>
+  <si>
+    <t>VKV5dNVu5bE</t>
+  </si>
+  <si>
+    <t>RHHyBdFXmzm</t>
+  </si>
+  <si>
+    <t>QREq6TD5PLh</t>
+  </si>
+  <si>
+    <t>FCYbicEfnuK</t>
+  </si>
+  <si>
+    <t>HEKhHBesxJb</t>
+  </si>
+  <si>
+    <t>QORK8IQLRe1</t>
+  </si>
+  <si>
+    <t>RLDP7qRz9xV</t>
+  </si>
+  <si>
+    <t>GBVB6fzLMC7</t>
+  </si>
+  <si>
+    <t>DANlL1l3C1G</t>
+  </si>
+  <si>
+    <t>GUZhFRaBTLh</t>
+  </si>
+  <si>
+    <t>KSWp3qBTt6x</t>
+  </si>
+  <si>
+    <t>DKQr2J9EAV2</t>
+  </si>
+  <si>
+    <t>QUDjaSdKEu3</t>
+  </si>
+  <si>
+    <t>Md. Ahad Hossain Apon</t>
+  </si>
+  <si>
+    <t>ahad.hossain@sonalibank.com.bd</t>
   </si>
 </sst>
 </file>
@@ -2087,13 +2096,15 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="42" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -2141,7 +2152,37 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -2462,11 +2503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C150" sqref="C150"/>
+    <sheetView tabSelected="1" topLeftCell="D139" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2475,30 +2515,30 @@
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B1" t="s">
-        <v>511</v>
+        <v>350</v>
       </c>
       <c r="C1" t="s">
-        <v>512</v>
+        <v>351</v>
       </c>
       <c r="D1" t="s">
-        <v>510</v>
+        <v>349</v>
       </c>
       <c r="E1" t="s">
-        <v>513</v>
+        <v>352</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2509,19 +2549,19 @@
         <v>2735</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2532,19 +2572,19 @@
         <v>2846</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G3" t="s">
-        <v>426</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2555,19 +2595,19 @@
         <v>2893</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G4" t="s">
-        <v>452</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2578,19 +2618,19 @@
         <v>2901</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>460</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2601,19 +2641,19 @@
         <v>2957</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>489</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2636,7 +2676,7 @@
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2659,7 +2699,7 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>427</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2682,7 +2722,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>432</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2705,7 +2745,7 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>463</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2728,7 +2768,7 @@
         <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>477</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2739,19 +2779,19 @@
         <v>2759</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="G12" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2762,19 +2802,19 @@
         <v>2844</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="G13" t="s">
-        <v>424</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2785,19 +2825,19 @@
         <v>2899</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="G14" t="s">
-        <v>458</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2808,19 +2848,19 @@
         <v>2910</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>351</v>
+        <v>363</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>364</v>
       </c>
       <c r="G15" t="s">
-        <v>465</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2831,19 +2871,19 @@
         <v>2965</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="G16" t="s">
-        <v>493</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2854,19 +2894,19 @@
         <v>2725</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>159</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2877,19 +2917,19 @@
         <v>2770</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2900,19 +2940,19 @@
         <v>2898</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
-        <v>457</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2923,19 +2963,19 @@
         <v>2918</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
-        <v>467</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2946,19 +2986,19 @@
         <v>2920</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
-        <v>469</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2981,7 +3021,7 @@
         <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3004,7 +3044,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3027,7 +3067,7 @@
         <v>81</v>
       </c>
       <c r="G24" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3050,7 +3090,7 @@
         <v>79</v>
       </c>
       <c r="G25" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3073,7 +3113,7 @@
         <v>83</v>
       </c>
       <c r="G26" t="s">
-        <v>473</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3096,7 +3136,7 @@
         <v>112</v>
       </c>
       <c r="G27" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3119,7 +3159,7 @@
         <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3142,7 +3182,7 @@
         <v>116</v>
       </c>
       <c r="G29" t="s">
-        <v>429</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3165,7 +3205,7 @@
         <v>118</v>
       </c>
       <c r="G30" t="s">
-        <v>449</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3188,7 +3228,7 @@
         <v>108</v>
       </c>
       <c r="G31" t="s">
-        <v>501</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3199,19 +3239,19 @@
         <v>2752</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G32" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3222,19 +3262,19 @@
         <v>2764</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="G33" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3245,19 +3285,19 @@
         <v>2933</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>295</v>
-      </c>
       <c r="G34" t="s">
-        <v>478</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3268,19 +3308,19 @@
         <v>2937</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>481</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3291,19 +3331,19 @@
         <v>2987</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G36" t="s">
-        <v>506</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3326,7 +3366,7 @@
         <v>147</v>
       </c>
       <c r="G37" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3343,13 +3383,13 @@
         <v>145</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>151</v>
+        <v>353</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>354</v>
       </c>
       <c r="G38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3372,7 +3412,7 @@
         <v>149</v>
       </c>
       <c r="G39" t="s">
-        <v>472</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3389,13 +3429,13 @@
         <v>145</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G40" t="s">
-        <v>480</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3412,13 +3452,13 @@
         <v>145</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G41" t="s">
-        <v>502</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3429,19 +3469,19 @@
         <v>2755</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G42" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3452,19 +3492,19 @@
         <v>2894</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G43" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3475,19 +3515,19 @@
         <v>2897</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G44" t="s">
-        <v>456</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3498,19 +3538,19 @@
         <v>2955</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G45" t="s">
-        <v>488</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3521,19 +3561,19 @@
         <v>2969</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="F46" s="4" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G46" t="s">
-        <v>495</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3544,19 +3584,19 @@
         <v>2751</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G47" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3567,19 +3607,19 @@
         <v>2857</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>283</v>
-      </c>
       <c r="G48" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3590,19 +3630,19 @@
         <v>2874</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G49" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3613,19 +3653,19 @@
         <v>2968</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G50" t="s">
-        <v>494</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3636,19 +3676,19 @@
         <v>2990</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G51" t="s">
-        <v>509</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -3659,19 +3699,19 @@
         <v>2757</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G52" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -3682,19 +3722,19 @@
         <v>2763</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="G53" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -3705,19 +3745,19 @@
         <v>2828</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G54" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -3728,19 +3768,19 @@
         <v>2919</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="G55" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -3751,19 +3791,19 @@
         <v>2935</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G56" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -3774,19 +3814,19 @@
         <v>2744</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="F57" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G57" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -3797,19 +3837,19 @@
         <v>2869</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G58" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -3820,19 +3860,19 @@
         <v>2922</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G59" t="s">
-        <v>471</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -3843,19 +3883,19 @@
         <v>2950</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G60" t="s">
-        <v>486</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -3866,19 +3906,19 @@
         <v>2973</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G61" t="s">
-        <v>498</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -3901,7 +3941,7 @@
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -3924,7 +3964,7 @@
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3947,7 +3987,7 @@
         <v>21</v>
       </c>
       <c r="G64" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3970,7 +4010,7 @@
         <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -3993,7 +4033,7 @@
         <v>23</v>
       </c>
       <c r="G66" t="s">
-        <v>483</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4016,7 +4056,7 @@
         <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>361</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4039,7 +4079,7 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4062,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4085,7 +4125,7 @@
         <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4108,7 +4148,7 @@
         <v>9</v>
       </c>
       <c r="G71" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4131,7 +4171,7 @@
         <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>364</v>
+        <v>435</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4154,7 +4194,7 @@
         <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4177,7 +4217,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4200,7 +4240,7 @@
         <v>45</v>
       </c>
       <c r="G75" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4223,7 +4263,7 @@
         <v>47</v>
       </c>
       <c r="G76" t="s">
-        <v>497</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4246,7 +4286,7 @@
         <v>52</v>
       </c>
       <c r="G77" t="s">
-        <v>365</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4269,7 +4309,7 @@
         <v>59</v>
       </c>
       <c r="G78" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4292,7 +4332,7 @@
         <v>57</v>
       </c>
       <c r="G79" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4315,7 +4355,7 @@
         <v>55</v>
       </c>
       <c r="G80" t="s">
-        <v>492</v>
+        <v>443</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4334,11 +4374,11 @@
       <c r="E81" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G81" t="s">
-        <v>507</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4349,19 +4389,19 @@
         <v>2756</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G82" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4372,19 +4412,19 @@
         <v>2821</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G83" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4395,19 +4435,19 @@
         <v>2845</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G84" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4418,912 +4458,912 @@
         <v>2921</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>333</v>
+        <v>317</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="G85" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>2356</v>
+      </c>
+      <c r="B86" s="5">
+        <v>2921</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G86" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>2320</v>
+      </c>
+      <c r="B87" s="5">
+        <v>2720</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G87" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>2320</v>
+      </c>
+      <c r="B88" s="5">
+        <v>2868</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G88" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>2320</v>
+      </c>
+      <c r="B89" s="5">
+        <v>2928</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G89" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>2320</v>
+      </c>
+      <c r="B90" s="5">
+        <v>2971</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G90" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>2320</v>
+      </c>
+      <c r="B91" s="5">
+        <v>2989</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G91" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>2308</v>
+      </c>
+      <c r="B92" s="5">
+        <v>2708</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G92" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>2308</v>
+      </c>
+      <c r="B93" s="5">
+        <v>2797</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G93" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>2308</v>
+      </c>
+      <c r="B94" s="5">
+        <v>2817</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G94" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>2308</v>
+      </c>
+      <c r="B95" s="5">
+        <v>2823</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G95" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>2308</v>
+      </c>
+      <c r="B96" s="5">
+        <v>2853</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G96" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>2348</v>
+      </c>
+      <c r="B97" s="5">
+        <v>2748</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G97" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>2348</v>
+      </c>
+      <c r="B98" s="5">
+        <v>2771</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G98" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>2348</v>
+      </c>
+      <c r="B99" s="5">
+        <v>2811</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="G99" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>2348</v>
+      </c>
+      <c r="B100" s="5">
+        <v>2904</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="G100" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>2348</v>
+      </c>
+      <c r="B101" s="5">
+        <v>2949</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G101" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>2317</v>
+      </c>
+      <c r="B102" s="5">
+        <v>2717</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G102" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>2317</v>
+      </c>
+      <c r="B103" s="5">
+        <v>2859</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G103" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>2317</v>
+      </c>
+      <c r="B104" s="5">
+        <v>2895</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G104" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>2317</v>
+      </c>
+      <c r="B105" s="5">
+        <v>2939</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G105" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>2317</v>
+      </c>
+      <c r="B106" s="5">
+        <v>2975</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G106" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>2349</v>
+      </c>
+      <c r="B107" s="5">
+        <v>2749</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G107" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>2320</v>
-      </c>
-      <c r="B86" s="5">
-        <v>2720</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G86" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>2320</v>
-      </c>
-      <c r="B87" s="5">
-        <v>2868</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G87" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="4">
-        <v>2320</v>
-      </c>
-      <c r="B88" s="5">
-        <v>2928</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G88" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>2349</v>
+      </c>
+      <c r="B108" s="5">
+        <v>2796</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G108" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>2349</v>
+      </c>
+      <c r="B109" s="5">
+        <v>2840</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G109" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>2349</v>
+      </c>
+      <c r="B110" s="5">
+        <v>2861</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G110" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>2349</v>
+      </c>
+      <c r="B111" s="5">
+        <v>2959</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G111" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
+        <v>2338</v>
+      </c>
+      <c r="B112" s="5">
+        <v>2738</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G112" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>2338</v>
+      </c>
+      <c r="B113" s="5">
+        <v>2818</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G113" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>2320</v>
-      </c>
-      <c r="B89" s="5">
-        <v>2971</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G89" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
-        <v>2320</v>
-      </c>
-      <c r="B90" s="5">
-        <v>2989</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G90" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
-        <v>2308</v>
-      </c>
-      <c r="B91" s="5">
-        <v>2708</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G91" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>2308</v>
-      </c>
-      <c r="B92" s="5">
-        <v>2797</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G92" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>2308</v>
-      </c>
-      <c r="B93" s="5">
-        <v>2817</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G93" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="4">
-        <v>2308</v>
-      </c>
-      <c r="B94" s="5">
-        <v>2823</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G94" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>2308</v>
-      </c>
-      <c r="B95" s="5">
-        <v>2853</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G95" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
-        <v>2348</v>
-      </c>
-      <c r="B96" s="5">
-        <v>2748</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="G96" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="4">
-        <v>2348</v>
-      </c>
-      <c r="B97" s="5">
-        <v>2771</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G97" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>2348</v>
-      </c>
-      <c r="B98" s="5">
-        <v>2811</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G98" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>2348</v>
-      </c>
-      <c r="B99" s="5">
-        <v>2904</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G99" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>2348</v>
-      </c>
-      <c r="B100" s="5">
-        <v>2949</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G100" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>2338</v>
+      </c>
+      <c r="B114" s="5">
+        <v>2896</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G114" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>2338</v>
+      </c>
+      <c r="B115" s="5">
+        <v>2960</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G115" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>2338</v>
+      </c>
+      <c r="B116" s="5">
+        <v>2976</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G116" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
+        <v>2340</v>
+      </c>
+      <c r="B117" s="5">
+        <v>2740</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G117" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>2340</v>
+      </c>
+      <c r="B118" s="5">
+        <v>2804</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G118" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>2340</v>
+      </c>
+      <c r="B119" s="5">
+        <v>2824</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G119" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>2340</v>
+      </c>
+      <c r="B120" s="5">
+        <v>2850</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G120" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>2340</v>
+      </c>
+      <c r="B121" s="5">
+        <v>2854</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G121" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
+        <v>2341</v>
+      </c>
+      <c r="B122" s="5">
+        <v>2741</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G122" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
-        <v>2317</v>
-      </c>
-      <c r="B101" s="5">
-        <v>2717</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G101" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>2317</v>
-      </c>
-      <c r="B102" s="5">
-        <v>2859</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G102" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
-        <v>2317</v>
-      </c>
-      <c r="B103" s="5">
-        <v>2895</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G103" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>2317</v>
-      </c>
-      <c r="B104" s="5">
-        <v>2939</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G104" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>2317</v>
-      </c>
-      <c r="B105" s="5">
-        <v>2975</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G105" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
-        <v>2349</v>
-      </c>
-      <c r="B106" s="5">
-        <v>2749</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G106" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>2349</v>
-      </c>
-      <c r="B107" s="5">
-        <v>2796</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G107" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>2349</v>
-      </c>
-      <c r="B108" s="5">
-        <v>2840</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G108" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>2349</v>
-      </c>
-      <c r="B109" s="5">
-        <v>2861</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G109" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="4">
-        <v>2349</v>
-      </c>
-      <c r="B110" s="5">
-        <v>2959</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="G110" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
-        <v>2338</v>
-      </c>
-      <c r="B111" s="5">
-        <v>2738</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G111" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>2338</v>
-      </c>
-      <c r="B112" s="5">
-        <v>2818</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G112" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="4">
-        <v>2338</v>
-      </c>
-      <c r="B113" s="5">
-        <v>2896</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="G113" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>2338</v>
-      </c>
-      <c r="B114" s="5">
-        <v>2960</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="G114" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>2338</v>
-      </c>
-      <c r="B115" s="5">
-        <v>2976</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G115" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="5">
-        <v>2340</v>
-      </c>
-      <c r="B116" s="5">
-        <v>2740</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G116" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="4">
-        <v>2340</v>
-      </c>
-      <c r="B117" s="5">
-        <v>2804</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F117" s="4" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>2341</v>
+      </c>
+      <c r="B123" s="5">
+        <v>2810</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G117" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
-        <v>2340</v>
-      </c>
-      <c r="B118" s="5">
-        <v>2824</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G118" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>2340</v>
-      </c>
-      <c r="B119" s="5">
-        <v>2850</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G119" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>2340</v>
-      </c>
-      <c r="B120" s="5">
-        <v>2854</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G120" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
+      <c r="D123" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G123" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
         <v>2341</v>
       </c>
-      <c r="B121" s="5">
-        <v>2741</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G121" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
-        <v>2341</v>
-      </c>
-      <c r="B122" s="5">
-        <v>2810</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G122" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
-        <v>2341</v>
-      </c>
-      <c r="B123" s="5">
+      <c r="B124" s="5">
         <v>2926</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G123" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>2341</v>
-      </c>
-      <c r="B124" s="5">
-        <v>2953</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E124" s="2" t="s">
+      <c r="C124" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="F124" s="4" t="s">
         <v>225</v>
       </c>
       <c r="G124" t="s">
@@ -5331,612 +5371,648 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+      <c r="A125" s="2">
         <v>2341</v>
       </c>
       <c r="B125" s="5">
+        <v>2953</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G125" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>2341</v>
+      </c>
+      <c r="B126" s="5">
         <v>2985</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F125" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G125" t="s">
+      <c r="E126" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G126" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
+        <v>2353</v>
+      </c>
+      <c r="B127" s="5">
+        <v>2753</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G127" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>2353</v>
+      </c>
+      <c r="B128" s="5">
+        <v>2843</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G128" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>2353</v>
+      </c>
+      <c r="B129" s="5">
+        <v>2906</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G129" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>2353</v>
+      </c>
+      <c r="B130" s="5">
+        <v>2927</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G130" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="2">
+        <v>2353</v>
+      </c>
+      <c r="B131" s="5">
+        <v>2947</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G131" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
+        <v>2312</v>
+      </c>
+      <c r="B132" s="5">
+        <v>2712</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G132" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>2312</v>
+      </c>
+      <c r="B133" s="5">
+        <v>2780</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G133" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>2312</v>
+      </c>
+      <c r="B134" s="5">
+        <v>2784</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G134" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="2">
+        <v>2312</v>
+      </c>
+      <c r="B135" s="5">
+        <v>2802</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G135" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>2312</v>
+      </c>
+      <c r="B136" s="5">
+        <v>2980</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G136" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="5">
+        <v>2331</v>
+      </c>
+      <c r="B137" s="5">
+        <v>2731</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G137" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>2331</v>
+      </c>
+      <c r="B138" s="5">
+        <v>2772</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G138" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>2331</v>
+      </c>
+      <c r="B139" s="5">
+        <v>2820</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G139" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>2331</v>
+      </c>
+      <c r="B140" s="5">
+        <v>2860</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G140" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="2">
+        <v>2331</v>
+      </c>
+      <c r="B141" s="5">
+        <v>2917</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G141" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
+        <v>2311</v>
+      </c>
+      <c r="B142" s="5">
+        <v>2711</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G142" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
-        <v>2353</v>
-      </c>
-      <c r="B126" s="5">
-        <v>2753</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F126" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G126" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
-        <v>2353</v>
-      </c>
-      <c r="B127" s="5">
-        <v>2843</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="G127" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="4">
-        <v>2353</v>
-      </c>
-      <c r="B128" s="5">
-        <v>2906</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G128" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>2353</v>
-      </c>
-      <c r="B129" s="5">
-        <v>2927</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G129" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>2353</v>
-      </c>
-      <c r="B130" s="5">
-        <v>2947</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="G130" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="5">
-        <v>2312</v>
-      </c>
-      <c r="B131" s="5">
-        <v>2712</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G131" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
-        <v>2312</v>
-      </c>
-      <c r="B132" s="5">
-        <v>2780</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G132" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="4">
-        <v>2312</v>
-      </c>
-      <c r="B133" s="5">
-        <v>2784</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G133" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>2312</v>
-      </c>
-      <c r="B134" s="5">
-        <v>2802</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G134" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>2312</v>
-      </c>
-      <c r="B135" s="5">
-        <v>2980</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G135" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
-        <v>2331</v>
-      </c>
-      <c r="B136" s="5">
-        <v>2731</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G136" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
-        <v>2331</v>
-      </c>
-      <c r="B137" s="5">
-        <v>2772</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G137" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="4">
-        <v>2331</v>
-      </c>
-      <c r="B138" s="5">
-        <v>2820</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G138" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>2331</v>
-      </c>
-      <c r="B139" s="5">
-        <v>2860</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G139" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
-        <v>2331</v>
-      </c>
-      <c r="B140" s="5">
-        <v>2917</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G140" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
         <v>2311</v>
       </c>
-      <c r="B141" s="5">
-        <v>2711</v>
-      </c>
-      <c r="C141" s="5" t="s">
+      <c r="B143" s="5">
+        <v>2879</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D143" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E141" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G141" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="4">
+      <c r="E143" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G143" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>2311</v>
       </c>
-      <c r="B142" s="5">
-        <v>2879</v>
-      </c>
-      <c r="C142" s="4" t="s">
+      <c r="B144" s="5">
+        <v>2892</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D144" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G142" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+      <c r="E144" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G144" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="2">
         <v>2311</v>
       </c>
-      <c r="B143" s="5">
-        <v>2892</v>
-      </c>
-      <c r="C143" s="1" t="s">
+      <c r="B145" s="5">
+        <v>2909</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D145" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G143" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
+      <c r="E145" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G145" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
         <v>2311</v>
       </c>
-      <c r="B144" s="5">
-        <v>2909</v>
-      </c>
-      <c r="C144" s="2" t="s">
+      <c r="B146" s="5">
+        <v>2981</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D146" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G144" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
-        <v>2311</v>
-      </c>
-      <c r="B145" s="5">
-        <v>2981</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E145" s="3" t="s">
+      <c r="E146" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F146" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G145" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="5">
+      <c r="G146" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="5">
         <v>2347</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B147" s="5">
         <v>2747</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C147" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E147" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="F147" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G147" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="2">
+        <v>2347</v>
+      </c>
+      <c r="B148" s="5">
+        <v>2858</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G148" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>2347</v>
+      </c>
+      <c r="B149" s="5">
+        <v>2882</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="G149" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>2347</v>
+      </c>
+      <c r="B150" s="5">
+        <v>2884</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G150" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>2347</v>
+      </c>
+      <c r="B151" s="5">
+        <v>2891</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E146" s="5" t="s">
+      <c r="F151" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="F146" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G146" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
-        <v>2347</v>
-      </c>
-      <c r="B147" s="5">
-        <v>2858</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G147" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
-        <v>2347</v>
-      </c>
-      <c r="B148" s="5">
-        <v>2882</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G148" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="4">
-        <v>2347</v>
-      </c>
-      <c r="B149" s="5">
-        <v>2884</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="G149" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>2347</v>
-      </c>
-      <c r="B150" s="5">
-        <v>2891</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G150" t="s">
-        <v>450</v>
+      <c r="G151" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G150">
-    <sortCondition ref="C2:C150"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G151">
+    <sortCondition ref="C2:C151"/>
   </sortState>
-  <conditionalFormatting sqref="F4:F150 F1">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87:F99 F4:F37 F1 F39:F84 F102:F151">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F81" r:id="rId1" xr:uid="{AD0A43EA-9325-46DC-84E7-B22C2F299272}"/>
+    <hyperlink ref="F38" r:id="rId1" xr:uid="{587C34C6-658B-4B65-A41D-11C8107A3B91}"/>
+    <hyperlink ref="F85" r:id="rId2" xr:uid="{E44EA4CD-A789-48AD-915B-D4AE12DA97E2}"/>
+    <hyperlink ref="F86" r:id="rId3" xr:uid="{88061C82-DBAA-415E-AA06-ACDDCD506A04}"/>
+    <hyperlink ref="F15" r:id="rId4" xr:uid="{BB4C0505-1CA9-4C97-8098-70569214C169}"/>
+    <hyperlink ref="F131" r:id="rId5" xr:uid="{2F05660C-522F-40EB-8D88-144CC94C644E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
